--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coolbay\OneDrive\Documentos\GitHub\TP-PA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE4AEE6-C4DC-40FE-9D67-3752184E0979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D9D47-4C35-42A0-B385-D865E5AA85AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20925" yWindow="2490" windowWidth="15780" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28815" yWindow="705" windowWidth="15780" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -154,9 +154,6 @@
     <t>verificar condicao, pode ser melhorada ver comentario</t>
   </si>
   <si>
-    <t>Avancar sem faase fechada</t>
-  </si>
-  <si>
     <t>Inserção de candidaturas por CSV</t>
   </si>
   <si>
@@ -168,12 +165,45 @@
   <si>
     <t>validação se aluno tem possibilidade de receber proposta</t>
   </si>
+  <si>
+    <t>validação de existência de propostas</t>
+  </si>
+  <si>
+    <t>Avancar sem fase fechada</t>
+  </si>
+  <si>
+    <t>validação da proposta poder receber candidaturas</t>
+  </si>
+  <si>
+    <t>condição de fecho correta</t>
+  </si>
+  <si>
+    <t>export de candidaturas para CSV</t>
+  </si>
+  <si>
+    <t>Recuar fase</t>
+  </si>
+  <si>
+    <t>Modo de atribuição de propostas</t>
+  </si>
+  <si>
+    <t>Atribuição automática das autopropostas ou propostas de docentes</t>
+  </si>
+  <si>
+    <t>Atribuição automática de uma proposta disponível aos alunos ainda sem atribuições definidas e reolução de conflitos</t>
+  </si>
+  <si>
+    <t>UI adequado com fase anterior aberta</t>
+  </si>
+  <si>
+    <t>export da atribuição para CSV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +213,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -235,11 +273,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -272,141 +316,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -706,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC48"/>
+  <dimension ref="A1:XFC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,13 +634,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16383" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -33797,17 +33711,17 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>40</v>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -33821,7 +33735,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>33</v>
@@ -33829,7 +33743,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
@@ -33837,11 +33751,121 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B54 B56:B1048576">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"parcial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>

--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coolbay\OneDrive\Documentos\GitHub\TP-PA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D9D47-4C35-42A0-B385-D865E5AA85AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C85965F-B968-41FB-8AE0-400A47E5C61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28815" yWindow="705" windowWidth="15780" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -190,13 +190,25 @@
     <t>Atribuição automática das autopropostas ou propostas de docentes</t>
   </si>
   <si>
-    <t>Atribuição automática de uma proposta disponível aos alunos ainda sem atribuições definidas e reolução de conflitos</t>
-  </si>
-  <si>
     <t>UI adequado com fase anterior aberta</t>
   </si>
   <si>
-    <t>export da atribuição para CSV</t>
+    <t>UI apos fecho</t>
+  </si>
+  <si>
+    <t>reolução de conflitos</t>
+  </si>
+  <si>
+    <t>Atribuição automática de uma proposta disponível aos alunos ainda sem atribuições definidas</t>
+  </si>
+  <si>
+    <t>undo e redo numa fase dentro da remocao manual?</t>
+  </si>
+  <si>
+    <t>export da atribuição para CSV em todos os modos</t>
+  </si>
+  <si>
+    <t>funcoes de undo e redo na gestao manual(novo estado)</t>
   </si>
 </sst>
 </file>
@@ -620,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC61"/>
+  <dimension ref="A1:XFC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33757,7 +33769,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>41</v>
       </c>
@@ -33765,7 +33777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>42</v>
       </c>
@@ -33773,7 +33785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>44</v>
       </c>
@@ -33781,7 +33793,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>46</v>
       </c>
@@ -33789,7 +33801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
@@ -33797,7 +33809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>47</v>
       </c>
@@ -33805,7 +33817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>43</v>
       </c>
@@ -33813,7 +33825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>48</v>
       </c>
@@ -33821,7 +33833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>49</v>
       </c>
@@ -33829,28 +33841,55 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coolbay\OneDrive\Documentos\GitHub\TP-PA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A57A1D-B131-4F8D-9357-0821A84D3CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15412201-1D2E-4D46-88BA-AB5CB24B1566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="2175" windowWidth="15780" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36990" yWindow="1935" windowWidth="15780" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -259,16 +259,16 @@
     <t>remocao manual de todas atribuicoes</t>
   </si>
   <si>
-    <t>falta teste</t>
-  </si>
-  <si>
     <t>Modo atribuicao orientadores</t>
   </si>
   <si>
     <t>Alterar Orientador</t>
   </si>
   <si>
-    <t>testar</t>
+    <t>eliminar propostas dos alunos</t>
+  </si>
+  <si>
+    <t>falta testar</t>
   </si>
 </sst>
 </file>
@@ -370,37 +370,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -829,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34197,11 +34167,9 @@
         <v>54</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
@@ -34210,7 +34178,9 @@
       <c r="B70" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="9"/>
+      <c r="C70" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
@@ -34237,7 +34207,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>33</v>
@@ -34253,7 +34223,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>33</v>
@@ -34338,22 +34308,18 @@
         <v>67</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
@@ -34363,7 +34329,7 @@
         <v>32</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -34371,11 +34337,9 @@
         <v>69</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
@@ -34393,46 +34357,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B54 B56:B69 B73:B1048576">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"parcial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"parcial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"parcial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"parcial"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coolbay\OneDrive\Documentos\GitHub\TP-PA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15412201-1D2E-4D46-88BA-AB5CB24B1566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0193A15-07CE-4F54-AA3B-2B6020FC5375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36990" yWindow="1935" windowWidth="15780" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="1965" windowWidth="15780" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -205,9 +205,6 @@
     <t>remocao manual de atribuicao</t>
   </si>
   <si>
-    <t>nok</t>
-  </si>
-  <si>
     <t>condicao de fecho verificada</t>
   </si>
   <si>
@@ -263,12 +260,6 @@
   </si>
   <si>
     <t>Alterar Orientador</t>
-  </si>
-  <si>
-    <t>eliminar propostas dos alunos</t>
-  </si>
-  <si>
-    <t>falta testar</t>
   </si>
 </sst>
 </file>
@@ -799,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34094,7 +34085,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>33</v>
@@ -34121,7 +34112,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>33</v>
@@ -34130,7 +34121,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>33</v>
@@ -34139,7 +34130,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -34155,7 +34146,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>33</v>
@@ -34173,14 +34164,12 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
@@ -34207,7 +34196,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>33</v>
@@ -34216,14 +34205,14 @@
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>33</v>
@@ -34232,7 +34221,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>33</v>
@@ -34241,7 +34230,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>33</v>
@@ -34250,7 +34239,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>33</v>
@@ -34273,7 +34262,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>33</v>
@@ -34282,7 +34271,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>33</v>
@@ -34291,7 +34280,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>33</v>
@@ -34305,7 +34294,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>33</v>
@@ -34314,7 +34303,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>33</v>
@@ -34323,18 +34312,16 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>33</v>
@@ -34348,7 +34335,7 @@
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>33</v>

--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coolbay\OneDrive\Documentos\GitHub\TP-PA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0193A15-07CE-4F54-AA3B-2B6020FC5375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8E9B5F-F1B0-4C43-8359-B93758ABE82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9780" yWindow="1965" windowWidth="15780" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -136,19 +136,10 @@
 Os docentes poderão ter o papel de orientador ou proponente de projeto.</t>
   </si>
   <si>
-    <t>parcial</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>devem aparecer ja as propostas e candidaturas? melhorar output</t>
-  </si>
-  <si>
     <t>UI</t>
-  </si>
-  <si>
-    <t>verificar condicao, pode ser melhorada ver comentario</t>
   </si>
   <si>
     <t>Inserção de candidaturas por CSV</t>
@@ -261,6 +252,9 @@
   <si>
     <t>Alterar Orientador</t>
   </si>
+  <si>
+    <t>export para CSV</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +355,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -788,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC91"/>
+  <dimension ref="A1:XFC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -831,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -840,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -849,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -858,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -867,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -876,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9"/>
     </row>
@@ -885,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -894,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -903,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9"/>
     </row>
@@ -912,18 +936,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9"/>
     </row>
@@ -932,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -17318,10 +17340,10 @@
     </row>
     <row r="16" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -33715,7 +33737,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="9"/>
     </row>
@@ -33724,7 +33746,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="9"/>
     </row>
@@ -33733,7 +33755,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="9"/>
     </row>
@@ -33742,7 +33764,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="9"/>
     </row>
@@ -33751,7 +33773,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="9"/>
     </row>
@@ -33760,7 +33782,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -33769,16 +33791,16 @@
         <v>29</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -33792,7 +33814,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="9"/>
     </row>
@@ -33801,7 +33823,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="9"/>
     </row>
@@ -33810,7 +33832,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="9"/>
     </row>
@@ -33819,7 +33841,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="9"/>
     </row>
@@ -33828,7 +33850,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="9"/>
     </row>
@@ -33837,7 +33859,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="9"/>
     </row>
@@ -33846,7 +33868,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="9"/>
     </row>
@@ -33855,7 +33877,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="9"/>
     </row>
@@ -33864,7 +33886,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="9"/>
     </row>
@@ -33873,7 +33895,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="9"/>
     </row>
@@ -33882,7 +33904,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="9"/>
     </row>
@@ -33891,16 +33913,16 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="9"/>
     </row>
@@ -33916,25 +33938,23 @@
       <c r="B41" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="9"/>
     </row>
@@ -33945,19 +33965,19 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" s="9"/>
     </row>
@@ -33966,79 +33986,79 @@
         <v>10</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="9"/>
     </row>
@@ -34049,143 +34069,143 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="9"/>
     </row>
@@ -34196,154 +34216,174 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
+      <c r="A81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
+      <c r="A85" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C90" s="9"/>
     </row>
-    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>33</v>
-      </c>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="9"/>
     </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="9"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B54 B56:B69 B73:B1048576">
+  <conditionalFormatting sqref="B1:B54 B56:B69 B73:B75 B77:B1048576">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"nok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"parcial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -34354,7 +34394,7 @@
       <formula>"parcial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
+  <conditionalFormatting sqref="B71">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -34365,7 +34405,7 @@
       <formula>"parcial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B72">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -34376,7 +34416,7 @@
       <formula>"parcial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+  <conditionalFormatting sqref="B70">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -34387,7 +34427,7 @@
       <formula>"parcial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B76">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
